--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17368</v>
+        <v>17359.6299122635</v>
       </c>
       <c r="C2">
-        <v>36839</v>
+        <v>36891.45214766602</v>
       </c>
       <c r="D2">
-        <v>71676</v>
+        <v>71785.74973061308</v>
       </c>
       <c r="E2">
-        <v>108650</v>
+        <v>108831.3431461096</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>179170</v>
+        <v>179130.1737333099</v>
       </c>
       <c r="C3">
-        <v>331512</v>
+        <v>332107.6342700651</v>
       </c>
       <c r="D3">
-        <v>401856</v>
+        <v>402421.5175193835</v>
       </c>
       <c r="E3">
-        <v>447720</v>
+        <v>448190.6277148937</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19242</v>
+        <v>19233.0375699881</v>
       </c>
       <c r="C4">
-        <v>36244</v>
+        <v>36301.32689215025</v>
       </c>
       <c r="D4">
-        <v>57699</v>
+        <v>57786.38454577468</v>
       </c>
       <c r="E4">
-        <v>74865</v>
+        <v>75011.34798940629</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>105264</v>
+        <v>105189.0445423489</v>
       </c>
       <c r="C6">
-        <v>133529</v>
+        <v>133734.4124316712</v>
       </c>
       <c r="D6">
-        <v>122752</v>
+        <v>122851.7835609764</v>
       </c>
       <c r="E6">
-        <v>100648</v>
+        <v>100780.2597267853</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10870</v>
+        <v>10868.29414806273</v>
       </c>
       <c r="C7">
-        <v>21720</v>
+        <v>21744.58556810208</v>
       </c>
       <c r="D7">
-        <v>23892</v>
+        <v>23933.45715564557</v>
       </c>
       <c r="E7">
-        <v>26028</v>
+        <v>26067.72939541312</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>809560</v>
+        <v>809341.8732435276</v>
       </c>
       <c r="C9">
-        <v>1295705</v>
+        <v>1298027.669546911</v>
       </c>
       <c r="D9">
-        <v>1755578</v>
+        <v>1757763.466731737</v>
       </c>
       <c r="E9">
-        <v>2164140</v>
+        <v>2167541.737071982</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>788434</v>
+        <v>788885.2271656395</v>
       </c>
       <c r="C12">
-        <v>866148</v>
+        <v>867423.9748857918</v>
       </c>
       <c r="D12">
-        <v>724556</v>
+        <v>725474.0045054841</v>
       </c>
       <c r="E12">
-        <v>547400</v>
+        <v>547087.2432607213</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17359.6299122635</v>
+        <v>17307.95399468788</v>
       </c>
       <c r="C2">
-        <v>36891.45214766602</v>
+        <v>36767.10680319828</v>
       </c>
       <c r="D2">
-        <v>71785.74973061308</v>
+        <v>71484.45479404794</v>
       </c>
       <c r="E2">
-        <v>108831.3431461096</v>
+        <v>108341.4531547904</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>179130.1737333099</v>
+        <v>178388.4373075254</v>
       </c>
       <c r="C3">
-        <v>332107.6342700651</v>
+        <v>330649.4337016355</v>
       </c>
       <c r="D3">
-        <v>402421.5175193835</v>
+        <v>400703.0402433815</v>
       </c>
       <c r="E3">
-        <v>448190.6277148937</v>
+        <v>446431.8120457914</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19233.0375699881</v>
+        <v>19268.74932027826</v>
       </c>
       <c r="C4">
-        <v>36301.32689215025</v>
+        <v>36389.19940027133</v>
       </c>
       <c r="D4">
-        <v>57786.38454577468</v>
+        <v>58000.61996140473</v>
       </c>
       <c r="E4">
-        <v>75011.34798940629</v>
+        <v>75337.70490499496</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>105189.0445423489</v>
+        <v>105113.5819417152</v>
       </c>
       <c r="C6">
-        <v>133734.4124316712</v>
+        <v>133631.5977974642</v>
       </c>
       <c r="D6">
-        <v>122851.7835609764</v>
+        <v>122771.4008084912</v>
       </c>
       <c r="E6">
-        <v>100780.2597267853</v>
+        <v>100707.9676409677</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10868.29414806273</v>
+        <v>10907.83587208283</v>
       </c>
       <c r="C7">
-        <v>21744.58556810208</v>
+        <v>21825.11240437903</v>
       </c>
       <c r="D7">
-        <v>23933.45715564557</v>
+        <v>24015.79507325526</v>
       </c>
       <c r="E7">
-        <v>26067.72939541312</v>
+        <v>26155.69459662445</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>809341.8732435276</v>
+        <v>805015.4788206146</v>
       </c>
       <c r="C9">
-        <v>1298027.669546911</v>
+        <v>1290589.721873379</v>
       </c>
       <c r="D9">
-        <v>1757763.466731737</v>
+        <v>1746390.410180163</v>
       </c>
       <c r="E9">
-        <v>2167541.737071982</v>
+        <v>2152630.994900301</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>788885.2271656395</v>
+        <v>772116.8340669469</v>
       </c>
       <c r="C12">
-        <v>867423.9748857918</v>
+        <v>849224.5956363075</v>
       </c>
       <c r="D12">
-        <v>725474.0045054841</v>
+        <v>712073.3009801974</v>
       </c>
       <c r="E12">
-        <v>547087.2432607213</v>
+        <v>536362.652872487</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV_Fiets.xlsx
@@ -411,7 +411,7 @@
         <v>330649.4337016355</v>
       </c>
       <c r="D3">
-        <v>400703.0402433815</v>
+        <v>400703.0402433816</v>
       </c>
       <c r="E3">
         <v>446431.8120457914</v>
@@ -422,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19268.74932027826</v>
+        <v>19268.74932027827</v>
       </c>
       <c r="C4">
         <v>36389.19940027133</v>
@@ -431,7 +431,7 @@
         <v>58000.61996140473</v>
       </c>
       <c r="E4">
-        <v>75337.70490499496</v>
+        <v>75337.70490499497</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -479,7 +479,7 @@
         <v>21825.11240437903</v>
       </c>
       <c r="D7">
-        <v>24015.79507325526</v>
+        <v>24015.79507325527</v>
       </c>
       <c r="E7">
         <v>26155.69459662445</v>
@@ -510,7 +510,7 @@
         <v>805015.4788206146</v>
       </c>
       <c r="C9">
-        <v>1290589.721873379</v>
+        <v>1290589.72187338</v>
       </c>
       <c r="D9">
         <v>1746390.410180163</v>
